--- a/Files/Excel/Honda.xlsx
+++ b/Files/Excel/Honda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B966423-B147-4ABF-B29D-945497EAF686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B06D26-5FB3-459E-8FD1-A25D71664E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,93 +20,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Honda 1300</t>
-  </si>
-  <si>
-    <t>Honda Accord</t>
-  </si>
-  <si>
-    <t>Honda Capa</t>
-  </si>
-  <si>
-    <t>Honda City</t>
-  </si>
-  <si>
-    <t>Honda City Turbo</t>
-  </si>
-  <si>
-    <t>Honda Civic</t>
-  </si>
-  <si>
-    <t>Honda CR-V</t>
-  </si>
-  <si>
-    <t>Honda CR-X</t>
-  </si>
-  <si>
-    <t>Honda CR-Z</t>
-  </si>
-  <si>
-    <t>Honda Crosstour</t>
-  </si>
-  <si>
-    <t>Honda Fit</t>
-  </si>
-  <si>
-    <t>Honda Freed</t>
-  </si>
-  <si>
-    <t>Honda HR-V</t>
-  </si>
-  <si>
-    <t>Honda Insight</t>
-  </si>
-  <si>
-    <t>Honda Legend</t>
-  </si>
-  <si>
-    <t>Honda Life Dunk</t>
-  </si>
-  <si>
-    <t>Honda Logo</t>
-  </si>
-  <si>
-    <t>Honda Mobilio</t>
-  </si>
-  <si>
-    <t>Motor Honda H</t>
-  </si>
-  <si>
-    <t>Honda NSX</t>
-  </si>
-  <si>
-    <t>Honda Passport</t>
-  </si>
-  <si>
-    <t>Honda S500</t>
-  </si>
-  <si>
-    <t>Honda Stream</t>
-  </si>
-  <si>
-    <t>Honda Vezel</t>
-  </si>
-  <si>
-    <t>Honda WR-V</t>
-  </si>
-  <si>
-    <t>Honda Zest</t>
-  </si>
-  <si>
-    <t>Honda ZR-V</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Turbo</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Crosstour</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Freed</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Dunk</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Mobilio</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>NSX</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Vezel</t>
+  </si>
+  <si>
+    <t>Zest</t>
   </si>
 </sst>
 </file>
@@ -469,239 +463,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B28"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1300</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
